--- a/public/models/stagiaire/stagiaire.xlsx
+++ b/public/models/stagiaire/stagiaire.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV-MBL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV-MBL\Desktop\Projet\Wizi-learn-laravel\public\models\stagiaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA74C39-8E6D-4279-BE5D-183057BE8933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0583A8E6-212A-467E-B70F-E6EF370BE2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29EF7707-47F8-4206-8AF8-FAD566461C5B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Civilité</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Date de naissance</t>
+  </si>
+  <si>
+    <t>Formation</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D26B87-8C28-449B-8470-25ED7B0B29B7}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +429,7 @@
     <col min="8" max="8" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,6 +453,9 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/models/stagiaire/stagiaire.xlsx
+++ b/public/models/stagiaire/stagiaire.xlsx
@@ -1,79 +1,146 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV-MBL\Desktop\Projet\Wizi-learn-laravel\public\models\stagiaire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV-MBL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0583A8E6-212A-467E-B70F-E6EF370BE2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD12EA1-9EA9-4A58-8327-2C8C13F00763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29EF7707-47F8-4206-8AF8-FAD566461C5B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Formations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Civilité</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Téléphone</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>Code postal</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Date de naissance</t>
+  </si>
+  <si>
+    <t>Formation</t>
+  </si>
+  <si>
+    <t>Date de début de formation</t>
+  </si>
+  <si>
+    <t>Date de fin de formation</t>
+  </si>
+  <si>
+    <t>Date d'inscription</t>
+  </si>
+  <si>
+    <t>Bureautique Word (Pack Office)</t>
+  </si>
+  <si>
+    <t>Les essentiels de la bureautique Word</t>
+  </si>
+  <si>
+    <t>Photoshop : Traitement de l'image (certification TOSA)</t>
+  </si>
+  <si>
+    <t>Illustrator : Création d'images vectorielles</t>
+  </si>
+  <si>
+    <t>DigComp: les bases du digital</t>
+  </si>
+  <si>
+    <t>Français (certification VOLTAIRE)</t>
+  </si>
+  <si>
+    <t>Anglais (certification TOEIC)</t>
+  </si>
+  <si>
+    <t>Outils Collaboratifs Google Workspace</t>
+  </si>
+  <si>
+    <t>Bureautique Excel (Pack Office)</t>
+  </si>
+  <si>
+    <t>Bureautique Excel Expert</t>
+  </si>
+  <si>
+    <t>Bureautique PowerPoint (Pack Office)</t>
+  </si>
+  <si>
+    <t>Bureautique Outlook</t>
+  </si>
+  <si>
+    <t>Les essentiels de la bureautique Excel</t>
+  </si>
+  <si>
+    <t>WordPress : Création de site internet + initiation WooCommerce</t>
+  </si>
+  <si>
+    <t>Les essentiels de la bureautique PowerPoint</t>
+  </si>
+  <si>
+    <t>WordPress : Création de site internet + initiation réseaux sociaux</t>
+  </si>
+  <si>
+    <t>GIMP : Traitement de l'image</t>
+  </si>
+  <si>
+    <t>Photoshop : Traitement de l'image + IA (certification ICDL)</t>
+  </si>
+  <si>
+    <t>Bureautique Google Docs</t>
+  </si>
+  <si>
+    <t>Bureautique Google Sheets</t>
+  </si>
+  <si>
+    <t>Bureautique Google Slides</t>
+  </si>
+  <si>
+    <t>mot de passe</t>
+  </si>
+  <si>
     <t>Tiers</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Téléphone</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>Code postal</t>
-  </si>
-  <si>
-    <t>Adresse</t>
-  </si>
-  <si>
-    <t>Date de naissance</t>
-  </si>
-  <si>
-    <t>Formation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,18 +159,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -116,7 +201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -126,44 +211,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -190,32 +275,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -242,24 +309,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -271,199 +320,369 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D26B87-8C28-449B-8470-25ED7B0B29B7}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A3AE204A-CAC9-40E2-AA45-9AB0F7863EF2}">
+          <x14:formula1>
+            <xm:f>Formations!$A$1:$A$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341A03C8-A6DD-4D7F-B536-6021C50CF99D}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{F983BB06-9F4F-406C-B72D-C97EA18D40E3}">
-      <formula1>"question audio,remplir le champ vide,carte flash,correspondance,choix multiples,commander,vrai/faux,banque de mots"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/models/stagiaire/stagiaire.xlsx
+++ b/public/models/stagiaire/stagiaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV-MBL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBL IT MANAGER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD12EA1-9EA9-4A58-8327-2C8C13F00763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65849A9-28F3-47DA-BB52-22526357A012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Date de fin de formation</t>
   </si>
   <si>
-    <t>Date d'inscription</t>
-  </si>
-  <si>
     <t>Bureautique Word (Pack Office)</t>
   </si>
   <si>
@@ -123,13 +120,16 @@
   </si>
   <si>
     <t>Tiers</t>
+  </si>
+  <si>
+    <t>Date d'inscriptions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,16 +142,28 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,15 +186,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,33 +514,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" customWidth="1"/>
+    <col min="10" max="10" width="33.109375" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -541,11 +570,116 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -572,114 +706,114 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="52.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
